--- a/Param.xlsx
+++ b/Param.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Param.xlsx
+++ b/Param.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>https://github.com/django/django</t>
   </si>
@@ -26,6 +23,15 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>/commits/master</t>
+  </si>
+  <si>
+    <t>COMMIT_URL</t>
+  </si>
+  <si>
+    <t>BASE_URL</t>
   </si>
 </sst>
 </file>
@@ -372,31 +378,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
